--- a/api.xlsx
+++ b/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddn\OneDrive\바탕 화면\java\myproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA340C-D053-4862-BC94-26B96D39051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4C889-B9F1-4972-A218-C1D90A3FBE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="142">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 회원 조회(게시판에서 누르면)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,6 +545,66 @@
   </si>
   <si>
     <t>별명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 회원 조회(게시판에서 누르면) with group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{search_condition}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?={content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1218,10 +1274,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3178-36BF-4FD4-8F5C-77529C0F111A}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1279,186 +1335,186 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1469,87 +1525,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40349A76-18F8-4548-9316-A39759849876}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>1234</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="4"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I7" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I8" s="6" t="s">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="N8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1557,13 +1615,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>28</v>
@@ -1575,216 +1633,324 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
       <c r="C16" s="11"/>
       <c r="D16" t="s">
         <v>60</v>
       </c>
-      <c r="K16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="P17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>47</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>49</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="R18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="S19" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="O20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="3" t="s">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="6" t="s">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="J23" t="s">
-        <v>126</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="M25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>83</v>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C26:C38"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddn\OneDrive\바탕 화면\java\myproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD4C889-B9F1-4972-A218-C1D90A3FBE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF1F3AE-66C2-4EBB-AD69-15F8DA2320B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,26 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그 아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +585,18 @@
   </si>
   <si>
     <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login/signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restcontroller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5BD86-DEF0-403E-96ED-DC7FBCD1E948}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3178-36BF-4FD4-8F5C-77529C0F111A}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,81 +1517,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40349A76-18F8-4548-9316-A39759849876}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="8"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>1234</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K7" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K8" s="6" t="s">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1607,7 +1600,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1615,342 +1608,349 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="R17" t="s">
+      <c r="D17" s="11"/>
+      <c r="S17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>47</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="S19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="T19" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="K20" s="6" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O21" s="4" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O22" s="4" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L23" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
         <v>125</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O24" s="4" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O25" s="4" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
-        <v>133</v>
-      </c>
       <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" t="s">
         <v>134</v>
       </c>
-      <c r="H26" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s">
         <v>63</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" t="s">
-        <v>136</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J27" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" t="s">
         <v>49</v>
       </c>
-      <c r="E28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" t="s">
         <v>49</v>
       </c>
-      <c r="E32" t="s">
-        <v>137</v>
-      </c>
       <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
         <v>58</v>
       </c>
-      <c r="I32" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="J32" t="s">
+        <v>136</v>
+      </c>
+      <c r="N32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
       <c r="F33" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D34" s="11"/>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
       <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" t="s">
-        <v>131</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C26:C38"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D26:D38"/>
+    <mergeCell ref="D41:D43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
